--- a/CharacterCustomizerPlus/LangMod/EN/cmm_localizations.xlsx
+++ b/CharacterCustomizerPlus/LangMod/EN/cmm_localizations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CharacterCustomizerPlus\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5751DCB1-5199-4F6F-952F-76B55B95EF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B2423B-66FF-43E4-8098-46FFC1C65591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="3075" windowWidth="25395" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,17 +47,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ccm_ui_remove</t>
+    <t>cmm_ui_remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>無し</t>
+    <t>cmm_ui_unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不明な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOD</t>
+    </r>
+  </si>
+  <si>
+    <t>Unknown Mod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,8 +127,8 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -426,7 +449,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,11 +502,23 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
+    </row>
+    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
